--- a/latest/BoM/Positional/pedalboard-display-bom.xlsx
+++ b/latest/BoM/Positional/pedalboard-display-bom.xlsx
@@ -8,17 +8,19 @@
   </bookViews>
   <sheets>
     <sheet name="BoM" sheetId="1" r:id="rId1"/>
-    <sheet name="Colors" sheetId="2" r:id="rId2"/>
+    <sheet name="DNF" sheetId="2" r:id="rId2"/>
+    <sheet name="Colors" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">BoM!$9:$9</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">DNF!$9:$9</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="152">
   <si>
     <t>Row</t>
   </si>
@@ -89,7 +91,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>Unpolarized capacitor</t>
+    <t>Unpolarized capacitor, small symbol</t>
   </si>
   <si>
     <t>C</t>
@@ -98,7 +100,7 @@
     <t>Device</t>
   </si>
   <si>
-    <t>C1 C2 C3 C4 C5 C6 C7 C8 C9 C10 C11 C12 C13 C14 C15 C16 C17 C18 C19 C20 C21 C22 C23 C24 C25 C26 C27 C28 C29 C30 C31 C32 C33 C34 C35 C36 C37 C38 C39 C40 C41 C42 C43 C44 C45 C46 C47 C48 C49 C50 C51 C52 C53 C54 C55 C56 C57 C58 C59 C60 C61 C62 C63 C64 C65 C66 C67 C68 C69 C70 C71 C72 C73 C74 C75 C76 C77 C78 C79 C80 C81 C82 C83 C84 C85 C86 C87 C88 C89 C90 C91 C92 C93 C94 C95 C96 C97 C98</t>
+    <t>C1 C2 C3 C4 C5 C6 C7 C8 C9 C10 C11 C12 C13 C14 C15 C16 C17 C18 C19 C20 C21 C22 C23 C24 C25 C26 C27 C28 C29 C30 C31 C32 C33 C34 C35 C36 C37 C38 C39 C40 C41 C42 C43 C44 C45 C46 C47 C48 C49 C50 C51 C52 C53 C54 C55 C56 C57 C58 C59 C60 C61 C62 C63 C64 C65 C66 C67 C68 C69 C70 C71 C72 C73 C74 C75 C76 C77 C78 C79 C80 C81 C82 C83 C84 C85 C86 C87 C88 C89 C90 C91 C92 C93 C94 C95 C96 C97 C98 C99 C100 C103 C104</t>
   </si>
   <si>
     <t>1uF</t>
@@ -110,82 +112,151 @@
     <t>Capacitor_SMD</t>
   </si>
   <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>https://media.digikey.com/pdf/Data%20Sheets/Samsung%20PDFs/CL_Series_MLCC_ds.pdf</t>
+  </si>
+  <si>
+    <t>/Led Ring GAIN</t>
+  </si>
+  <si>
+    <t>pedalboard-display(102)</t>
+  </si>
+  <si>
+    <t>134.0000</t>
+  </si>
+  <si>
+    <t>98.4700</t>
+  </si>
+  <si>
+    <t>180.0000</t>
+  </si>
+  <si>
+    <t>top</t>
+  </si>
+  <si>
+    <t>SMD</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>1.5200</t>
+  </si>
+  <si>
+    <t>0.6200</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>C_Small</t>
+  </si>
+  <si>
+    <t>C101 C102 C105 C106</t>
+  </si>
+  <si>
+    <t>10uF</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>~</t>
+  </si>
+  <si>
+    <t>/OLED</t>
+  </si>
+  <si>
+    <t>pedalboard-display(4)</t>
+  </si>
+  <si>
+    <t>-20.0000</t>
+  </si>
+  <si>
+    <t>136.0000</t>
+  </si>
+  <si>
+    <t>0.0000</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>SK6812</t>
+  </si>
+  <si>
+    <t>pedalboard-display</t>
+  </si>
+  <si>
+    <t>D1 D2 D3 D4 D5 D6 D7 D8 D9 D10 D11 D12 D13 D14 D15 D16 D17 D18 D19 D20 D21 D22 D23 D24 D25 D26 D27 D28 D29 D30 D31 D32 D33 D34 D35 D36 D37 D38 D39 D40 D41 D42 D43 D44 D45 D46 D47 D48 D49 D50 D51 D52 D53 D54 D55 D56 D57 D58 D59 D60 D61 D62 D63 D64 D65 D66 D67 D68 D69 D70 D71 D72 D73 D74 D75 D76 D77 D78 D79 D80 D81 D82 D83 D84 D85 D86 D87 D88 D89 D90 D91 D92 D93 D94 D95 D96 D97 D98</t>
+  </si>
+  <si>
+    <t>SK6812_EC15</t>
+  </si>
+  <si>
+    <t>LED_SK6812_EC15_1.5x1.5mm</t>
+  </si>
+  <si>
+    <t>Library</t>
+  </si>
+  <si>
     <t>98</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>https://media.digikey.com/pdf/Data%20Sheets/Samsung%20PDFs/CL_Series_MLCC_ds.pdf</t>
-  </si>
-  <si>
-    <t>/Led Ring GAIN</t>
+    <t>https://mm.digikey.com/Volume0/opasdata/d220001/medias/docus/2384/CL05A105KP5NNN_Specsheet%20(1).pdf</t>
   </si>
   <si>
     <t>pedalboard-display(98)</t>
   </si>
   <si>
-    <t>134.0000</t>
-  </si>
-  <si>
-    <t>98.4700</t>
-  </si>
-  <si>
-    <t>180.0000</t>
-  </si>
-  <si>
-    <t>top</t>
-  </si>
-  <si>
-    <t>SMD</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>1.5200</t>
-  </si>
-  <si>
-    <t>0.6200</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>RGB LED with integrated controller</t>
-  </si>
-  <si>
-    <t>SK6812</t>
-  </si>
-  <si>
-    <t>pedalboard-display</t>
-  </si>
-  <si>
-    <t>D1 D2 D3 D4 D5 D6 D7 D8 D9 D10 D11 D12 D13 D14 D15 D16 D17 D18 D19 D20 D21 D22 D23 D24 D25 D26 D27 D28 D29 D30 D31 D32 D33 D34 D35 D36 D37 D38 D39 D40 D41 D42 D43 D44 D45 D46 D47 D48 D49 D50 D51 D52 D53 D54 D55 D56 D57 D58 D59 D60 D61 D62 D63 D64 D65 D66 D67 D68 D69 D70 D71 D72 D73 D74 D75 D76 D77 D78 D79 D80 D81 D82 D83 D84 D85 D86 D87 D88 D89 D90 D91 D92 D93 D94 D95 D96 D97 D98</t>
-  </si>
-  <si>
-    <t>SK6812_EC15</t>
-  </si>
-  <si>
-    <t>LED_SK6812_EC15_1.5x1.5mm</t>
-  </si>
-  <si>
-    <t>Library</t>
-  </si>
-  <si>
-    <t>https://mm.digikey.com/Volume0/opasdata/d220001/medias/docus/2384/CL05A105KP5NNN_Specsheet%20(1).pdf</t>
-  </si>
-  <si>
     <t>97.0000</t>
   </si>
   <si>
     <t>1.4000</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>Generic connector, single row, 01x03, script generated</t>
+    <t>OLED display 128x64</t>
+  </si>
+  <si>
+    <t>OLED-128O064D</t>
+  </si>
+  <si>
+    <t>Display_Graphic</t>
+  </si>
+  <si>
+    <t>DS1 DS2</t>
+  </si>
+  <si>
+    <t>Display</t>
+  </si>
+  <si>
+    <t>https://www.vishay.com/docs/37902/oled128o064dbpp3n00000.pdf</t>
+  </si>
+  <si>
+    <t>pedalboard-display(2)</t>
+  </si>
+  <si>
+    <t>47.2000</t>
+  </si>
+  <si>
+    <t>14.7550</t>
+  </si>
+  <si>
+    <t>20.7000</t>
+  </si>
+  <si>
+    <t>2.0000</t>
+  </si>
+  <si>
+    <t>5</t>
   </si>
   <si>
     <t>Conn_01x03_Pin</t>
@@ -194,7 +265,7 @@
     <t>Connector</t>
   </si>
   <si>
-    <t>J1 J2</t>
+    <t>J1</t>
   </si>
   <si>
     <t>JST_PH_B3B-PH-SM4-TB_1x03-1MP_P2.00mm_Vertical</t>
@@ -203,13 +274,10 @@
     <t>Connector_JST</t>
   </si>
   <si>
-    <t>~</t>
-  </si>
-  <si>
     <t>/</t>
   </si>
   <si>
-    <t>pedalboard-display(2)</t>
+    <t>pedalboard-display(1)</t>
   </si>
   <si>
     <t>87.0000</t>
@@ -227,46 +295,100 @@
     <t>6.5000</t>
   </si>
   <si>
-    <t>4</t>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Generic connector, single row, 01x04, script generated</t>
+  </si>
+  <si>
+    <t>Conn_01x04_Pin</t>
+  </si>
+  <si>
+    <t>J3</t>
+  </si>
+  <si>
+    <t>OLED STEMMA</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>330</t>
+  </si>
+  <si>
+    <t>R_0402_1005Metric</t>
+  </si>
+  <si>
+    <t>Resistor_SMD</t>
+  </si>
+  <si>
+    <t>https://www.passivecomponent.com/wp-content/uploads/chipR/ASC_WR.pdf</t>
+  </si>
+  <si>
+    <t>74.0000</t>
+  </si>
+  <si>
+    <t>102.9900</t>
+  </si>
+  <si>
+    <t>270.0000</t>
+  </si>
+  <si>
+    <t>1.5600</t>
+  </si>
+  <si>
+    <t>0.6400</t>
+  </si>
+  <si>
+    <t>8</t>
   </si>
   <si>
     <t>Resistor</t>
   </si>
   <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>R1</t>
-  </si>
-  <si>
-    <t>330</t>
-  </si>
-  <si>
-    <t>R_0402_1005Metric</t>
-  </si>
-  <si>
-    <t>Resistor_SMD</t>
-  </si>
-  <si>
-    <t>https://www.passivecomponent.com/wp-content/uploads/chipR/ASC_WR.pdf</t>
-  </si>
-  <si>
-    <t>pedalboard-display(1)</t>
-  </si>
-  <si>
-    <t>74.0000</t>
-  </si>
-  <si>
-    <t>102.9900</t>
-  </si>
-  <si>
-    <t>270.0000</t>
-  </si>
-  <si>
-    <t>1.5600</t>
-  </si>
-  <si>
-    <t>0.6400</t>
+    <t>R2 R4</t>
+  </si>
+  <si>
+    <t>10K</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>R3 R5</t>
+  </si>
+  <si>
+    <t>390K</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>push-pull, active-high, 200mS reset delay, 2.93V threshold voltage, SOT-23</t>
+  </si>
+  <si>
+    <t>TLV810EA29DBZ</t>
+  </si>
+  <si>
+    <t>Power_Supervisor</t>
+  </si>
+  <si>
+    <t>U1 U2</t>
+  </si>
+  <si>
+    <t>SOT-23</t>
+  </si>
+  <si>
+    <t>Package_TO_SOT_SMD</t>
+  </si>
+  <si>
+    <t>https://www.ti.com/lit/ds/symlink/tlv803e.pdf</t>
   </si>
   <si>
     <t>KiBot Bill of Materials</t>
@@ -305,16 +427,40 @@
     <t>Component Count:</t>
   </si>
   <si>
-    <t>199 (199 SMD/ 0 THT)</t>
+    <t>218 (205 SMD/ 0 THT)</t>
   </si>
   <si>
     <t>Fitted Components:</t>
   </si>
   <si>
+    <t>215 (204 SMD/ 0 THT)</t>
+  </si>
+  <si>
     <t>Number of PCBs:</t>
   </si>
   <si>
     <t>Total Components:</t>
+  </si>
+  <si>
+    <t>J2</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (DNF)</t>
+  </si>
+  <si>
+    <t>4.7000</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>R6 R7</t>
   </si>
   <si>
     <t>Columns colors</t>
@@ -368,7 +514,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -419,6 +565,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFF8A8A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFF8080"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -436,7 +588,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -471,6 +623,9 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -492,6 +647,58 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1464384</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>123779</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+            <a:ext uri="{C183D7F6-B498-43B3-948B-1728B52AA6E4}">
+              <adec:decorative xmlns:adec="http://schemas.microsoft.com/office/drawing/2017/decorative" val="1"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2378784" cy="1285829"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>16584</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>123779</xdr:rowOff>
     </xdr:to>
@@ -817,7 +1024,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V12"/>
+  <dimension ref="A1:V18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
@@ -827,7 +1034,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="59.7109375" customWidth="1"/>
+    <col min="2" max="2" width="60.7109375" customWidth="1"/>
     <col min="3" max="3" width="19.7109375" customWidth="1"/>
     <col min="4" max="4" width="23.7109375" customWidth="1"/>
     <col min="5" max="5" width="60.7109375" customWidth="1"/>
@@ -839,7 +1046,7 @@
     <col min="11" max="11" width="16.7109375" customWidth="1"/>
     <col min="12" max="12" width="60.7109375" customWidth="1"/>
     <col min="13" max="13" width="19.7109375" customWidth="1"/>
-    <col min="14" max="14" width="27.7109375" customWidth="1"/>
+    <col min="14" max="14" width="28.7109375" customWidth="1"/>
     <col min="15" max="15" width="21.7109375" customWidth="1"/>
     <col min="16" max="16" width="21.7109375" customWidth="1"/>
     <col min="17" max="17" width="23.7109375" customWidth="1"/>
@@ -852,7 +1059,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>83</v>
+        <v>123</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -876,55 +1083,55 @@
     </row>
     <row r="2" spans="1:22">
       <c r="C2" s="2" t="s">
-        <v>84</v>
+        <v>124</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>93</v>
+        <v>133</v>
       </c>
       <c r="F2" s="3">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:22">
       <c r="C3" s="2" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>86</v>
+        <v>126</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>95</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:22">
       <c r="C4" s="2" t="s">
-        <v>87</v>
+        <v>127</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>88</v>
+        <v>128</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>96</v>
+        <v>136</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>95</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:22">
       <c r="C5" s="2" t="s">
-        <v>89</v>
+        <v>129</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>97</v>
+        <v>138</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -932,16 +1139,16 @@
     </row>
     <row r="6" spans="1:22">
       <c r="C6" s="2" t="s">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>98</v>
+        <v>139</v>
       </c>
       <c r="F6" s="3">
-        <v>199</v>
+        <v>215</v>
       </c>
     </row>
     <row r="8" spans="1:22">
@@ -1080,57 +1287,57 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="105" customHeight="1">
+    <row r="10" spans="1:22">
       <c r="A10" s="8" t="s">
         <v>43</v>
       </c>
       <c r="B10" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="D10" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="F10" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="G10" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="H10" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="G10" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>30</v>
-      </c>
       <c r="J10" s="8" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="K10" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="L10" s="10" t="s">
+      <c r="L10" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="M10" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="N10" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="M10" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="N10" s="8" t="s">
-        <v>34</v>
-      </c>
       <c r="O10" s="10" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="P10" s="10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q10" s="10" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="R10" s="10" t="s">
         <v>38</v>
@@ -1142,18 +1349,18 @@
         <v>40</v>
       </c>
       <c r="U10" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="V10" s="10" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="105" customHeight="1">
       <c r="A11" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B11" s="6" t="s">
         <v>55</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>47</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>56</v>
@@ -1165,34 +1372,34 @@
         <v>58</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="K11" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="L11" s="11" t="s">
-        <v>61</v>
+      <c r="L11" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>65</v>
@@ -1201,7 +1408,7 @@
         <v>37</v>
       </c>
       <c r="R11" s="7" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="S11" s="7" t="s">
         <v>39</v>
@@ -1210,63 +1417,63 @@
         <v>40</v>
       </c>
       <c r="U11" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="V11" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
+      <c r="A12" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="V11" s="7" t="s">
+      <c r="C12" s="10" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="12" spans="1:22" ht="30" customHeight="1">
-      <c r="A12" s="8" t="s">
+      <c r="D12" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="E12" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="F12" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="H12" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="D12" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>75</v>
-      </c>
       <c r="I12" s="8" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="K12" s="8" t="s">
         <v>31</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="M12" s="10" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="N12" s="8" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="O12" s="10" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="P12" s="10" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="Q12" s="10" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="R12" s="10" t="s">
         <v>38</v>
@@ -1278,10 +1485,418 @@
         <v>40</v>
       </c>
       <c r="U12" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="V12" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
+      <c r="A13" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="V12" s="10" t="s">
+      <c r="F13" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>82</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L13" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="R13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="S13" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="T13" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="U13" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="V13" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
+      <c r="A14" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L14" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="M14" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="N14" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="O14" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="P14" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q14" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="R14" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="S14" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="T14" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="U14" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="V14" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="30" customHeight="1">
+      <c r="A15" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="N15" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="R15" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="S15" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="T15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="U15" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="V15" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
+      <c r="A16" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L16" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="M16" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="N16" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="O16" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="P16" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q16" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="R16" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="S16" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="T16" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="U16" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="V16" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22">
+      <c r="A17" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L17" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="M17" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="N17" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="R17" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="S17" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="T17" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="U17" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="V17" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" ht="30" customHeight="1">
+      <c r="A18" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L18" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="M18" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="N18" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="O18" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="P18" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q18" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="R18" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="S18" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="T18" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="U18" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="V18" s="10" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1296,6 +1911,349 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:V10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" customWidth="1"/>
+    <col min="7" max="7" width="51.7109375" customWidth="1"/>
+    <col min="8" max="8" width="23.7109375" customWidth="1"/>
+    <col min="9" max="9" width="26.7109375" customWidth="1"/>
+    <col min="10" max="10" width="24.7109375" customWidth="1"/>
+    <col min="11" max="11" width="16.7109375" customWidth="1"/>
+    <col min="12" max="12" width="19.7109375" customWidth="1"/>
+    <col min="13" max="13" width="19.7109375" customWidth="1"/>
+    <col min="14" max="14" width="26.7109375" customWidth="1"/>
+    <col min="15" max="15" width="21.7109375" customWidth="1"/>
+    <col min="16" max="16" width="21.7109375" customWidth="1"/>
+    <col min="17" max="17" width="23.7109375" customWidth="1"/>
+    <col min="18" max="18" width="24.7109375" customWidth="1"/>
+    <col min="19" max="19" width="24.7109375" customWidth="1"/>
+    <col min="20" max="20" width="28.7109375" customWidth="1"/>
+    <col min="21" max="21" width="26.7109375" customWidth="1"/>
+    <col min="22" max="22" width="26.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" ht="32" customHeight="1">
+      <c r="C1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+    </row>
+    <row r="2" spans="1:22">
+      <c r="C2" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F2" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
+      <c r="C3" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
+      <c r="C4" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
+      <c r="C5" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
+      <c r="C6" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F6" s="3">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
+      <c r="A8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="T8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="U8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="V8" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
+      <c r="A9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="R9" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="S9" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="T9" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="U9" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="V9" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
+      <c r="A10" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="M10" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="N10" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="O10" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="P10" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q10" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="R10" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="S10" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="T10" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="U10" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="V10" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C1:V1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1307,27 +2265,27 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>99</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="7" t="s">
-        <v>100</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="5" t="s">
-        <v>101</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="6" t="s">
-        <v>102</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="11" t="s">
-        <v>103</v>
+      <c r="A5" s="12" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>

--- a/latest/BoM/Positional/pedalboard-display-bom.xlsx
+++ b/latest/BoM/Positional/pedalboard-display-bom.xlsx
@@ -352,7 +352,7 @@
     <t>Resistor</t>
   </si>
   <si>
-    <t>R2 R4</t>
+    <t>R2</t>
   </si>
   <si>
     <t>10K</t>
@@ -379,7 +379,7 @@
     <t>Power_Supervisor</t>
   </si>
   <si>
-    <t>U1 U2</t>
+    <t>U1</t>
   </si>
   <si>
     <t>SOT-23</t>
@@ -427,13 +427,13 @@
     <t>Component Count:</t>
   </si>
   <si>
-    <t>218 (205 SMD/ 0 THT)</t>
+    <t>216 (205 SMD/ 0 THT)</t>
   </si>
   <si>
     <t>Fitted Components:</t>
   </si>
   <si>
-    <t>215 (204 SMD/ 0 THT)</t>
+    <t>213 (204 SMD/ 0 THT)</t>
   </si>
   <si>
     <t>Number of PCBs:</t>
@@ -1148,7 +1148,7 @@
         <v>139</v>
       </c>
       <c r="F6" s="3">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="8" spans="1:22">
@@ -1721,10 +1721,10 @@
         <v>47</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="K16" s="8" t="s">
         <v>31</v>
@@ -1736,7 +1736,7 @@
         <v>50</v>
       </c>
       <c r="N16" s="8" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="O16" s="10" t="s">
         <v>52</v>
@@ -1857,10 +1857,10 @@
         <v>121</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="K18" s="8" t="s">
         <v>31</v>
@@ -1872,7 +1872,7 @@
         <v>50</v>
       </c>
       <c r="N18" s="8" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="O18" s="10" t="s">
         <v>52</v>
@@ -2035,7 +2035,7 @@
         <v>139</v>
       </c>
       <c r="F6" s="3">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="8" spans="1:22">

--- a/latest/BoM/Positional/pedalboard-display-bom.xlsx
+++ b/latest/BoM/Positional/pedalboard-display-bom.xlsx
@@ -8,19 +8,17 @@
   </bookViews>
   <sheets>
     <sheet name="BoM" sheetId="1" r:id="rId1"/>
-    <sheet name="DNF" sheetId="2" r:id="rId2"/>
-    <sheet name="Colors" sheetId="3" r:id="rId3"/>
+    <sheet name="Colors" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">BoM!$9:$9</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="1">DNF!$9:$9</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="119">
   <si>
     <t>Row</t>
   </si>
@@ -91,7 +89,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>Unpolarized capacitor, small symbol</t>
+    <t/>
   </si>
   <si>
     <t>C</t>
@@ -100,7 +98,7 @@
     <t>Device</t>
   </si>
   <si>
-    <t>C1 C2 C3 C4 C5 C6 C7 C8 C9 C10 C11 C12 C13 C14 C15 C16 C17 C18 C19 C20 C21 C22 C23 C24 C25 C26 C27 C28 C29 C30 C31 C32 C33 C34 C35 C36 C37 C38 C39 C40 C41 C42 C43 C44 C45 C46 C47 C48 C49 C50 C51 C52 C53 C54 C55 C56 C57 C58 C59 C60 C61 C62 C63 C64 C65 C66 C67 C68 C69 C70 C71 C72 C73 C74 C75 C76 C77 C78 C79 C80 C81 C82 C83 C84 C85 C86 C87 C88 C89 C90 C91 C92 C93 C94 C95 C96 C97 C98 C99 C100 C103 C104</t>
+    <t>C1 C2 C3 C4 C5 C6 C7 C8 C9 C10 C11 C12 C13 C14 C15 C16 C17 C18 C19 C20 C21 C22 C23 C24 C25 C26 C27 C28 C29 C30 C31 C32 C33 C34 C35 C36 C37 C38 C39 C40 C41 C42 C43 C44 C45 C46 C47 C48 C49 C50 C51 C52 C53 C54 C55 C56 C57 C58 C59 C60 C61 C62 C63 C64 C65 C66 C67 C68 C69 C70 C71 C72 C73 C74 C75 C76 C77 C78 C79 C80 C81 C82 C83 C84 C85 C86 C87 C88 C89 C90 C91 C92 C93 C94 C95 C96 C97 C98</t>
   </si>
   <si>
     <t>1uF</t>
@@ -112,7 +110,7 @@
     <t>Capacitor_SMD</t>
   </si>
   <si>
-    <t>102</t>
+    <t>98</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -124,7 +122,7 @@
     <t>/Led Ring GAIN</t>
   </si>
   <si>
-    <t>pedalboard-display(102)</t>
+    <t>pedalboard-display(98)</t>
   </si>
   <si>
     <t>134.0000</t>
@@ -154,241 +152,166 @@
     <t>2</t>
   </si>
   <si>
-    <t>C_Small</t>
-  </si>
-  <si>
-    <t>C101 C102 C105 C106</t>
-  </si>
-  <si>
-    <t>10uF</t>
-  </si>
-  <si>
-    <t/>
+    <t>SK6812</t>
+  </si>
+  <si>
+    <t>pedalboard-display</t>
+  </si>
+  <si>
+    <t>D1 D2 D3 D4 D5 D6 D7 D8 D9 D10 D11 D12 D13 D14 D15 D16 D17 D18 D19 D20 D21 D22 D23 D24 D25 D26 D27 D28 D29 D30 D31 D32 D33 D34 D35 D36 D37 D38 D39 D40 D41 D42 D43 D44 D45 D46 D47 D48 D49 D50 D51 D52 D53 D54 D55 D56 D57 D58 D59 D60 D61 D62 D63 D64 D65 D66 D67 D68 D69 D70 D71 D72 D73 D74 D75 D76 D77 D78 D79 D80 D81 D82 D83 D84 D85 D86 D87 D88 D89 D90 D91 D92 D93 D94 D95 D96 D97 D98</t>
+  </si>
+  <si>
+    <t>SK6812_EC15</t>
+  </si>
+  <si>
+    <t>LED_SK6812_EC15_1.5x1.5mm</t>
+  </si>
+  <si>
+    <t>Library</t>
+  </si>
+  <si>
+    <t>https://mm.digikey.com/Volume0/opasdata/d220001/medias/docus/2384/CL05A105KP5NNN_Specsheet%20(1).pdf</t>
+  </si>
+  <si>
+    <t>97.0000</t>
+  </si>
+  <si>
+    <t>1.4000</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Conn_01x03_Pin</t>
+  </si>
+  <si>
+    <t>Connector</t>
+  </si>
+  <si>
+    <t>J1 J2</t>
+  </si>
+  <si>
+    <t>JST_PH_B3B-PH-SM4-TB_1x03-1MP_P2.00mm_Vertical</t>
+  </si>
+  <si>
+    <t>Connector_JST</t>
+  </si>
+  <si>
+    <t>~</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>pedalboard-display(2)</t>
+  </si>
+  <si>
+    <t>87.0000</t>
+  </si>
+  <si>
+    <t>101.0000</t>
+  </si>
+  <si>
+    <t>bottom</t>
+  </si>
+  <si>
+    <t>10.4000</t>
+  </si>
+  <si>
+    <t>6.5000</t>
   </si>
   <si>
     <t>4</t>
   </si>
   <si>
-    <t>~</t>
-  </si>
-  <si>
-    <t>/OLED</t>
-  </si>
-  <si>
-    <t>pedalboard-display(4)</t>
-  </si>
-  <si>
-    <t>-20.0000</t>
-  </si>
-  <si>
-    <t>136.0000</t>
+    <t>Generic connector, single row, 01x04, script generated</t>
+  </si>
+  <si>
+    <t>Conn_01x04_Pin</t>
+  </si>
+  <si>
+    <t>J3</t>
+  </si>
+  <si>
+    <t>OLED</t>
+  </si>
+  <si>
+    <t>JST_PH_B4B-PH-SM4-TB_1x04-1MP_P2.00mm_Vertical</t>
+  </si>
+  <si>
+    <t>pedalboard-display(1)</t>
+  </si>
+  <si>
+    <t>107.0000</t>
+  </si>
+  <si>
+    <t>100.5500</t>
+  </si>
+  <si>
+    <t>12.4000</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>330</t>
+  </si>
+  <si>
+    <t>R_0402_1005Metric</t>
+  </si>
+  <si>
+    <t>Resistor_SMD</t>
+  </si>
+  <si>
+    <t>https://www.passivecomponent.com/wp-content/uploads/chipR/ASC_WR.pdf</t>
+  </si>
+  <si>
+    <t>74.0000</t>
+  </si>
+  <si>
+    <t>102.9900</t>
+  </si>
+  <si>
+    <t>270.0000</t>
+  </si>
+  <si>
+    <t>1.5600</t>
+  </si>
+  <si>
+    <t>0.6400</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>U1 U2</t>
+  </si>
+  <si>
+    <t>OLED_128x128</t>
+  </si>
+  <si>
+    <t>43.2500</t>
+  </si>
+  <si>
+    <t>51.2000</t>
   </si>
   <si>
     <t>0.0000</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>SK6812</t>
-  </si>
-  <si>
-    <t>pedalboard-display</t>
-  </si>
-  <si>
-    <t>D1 D2 D3 D4 D5 D6 D7 D8 D9 D10 D11 D12 D13 D14 D15 D16 D17 D18 D19 D20 D21 D22 D23 D24 D25 D26 D27 D28 D29 D30 D31 D32 D33 D34 D35 D36 D37 D38 D39 D40 D41 D42 D43 D44 D45 D46 D47 D48 D49 D50 D51 D52 D53 D54 D55 D56 D57 D58 D59 D60 D61 D62 D63 D64 D65 D66 D67 D68 D69 D70 D71 D72 D73 D74 D75 D76 D77 D78 D79 D80 D81 D82 D83 D84 D85 D86 D87 D88 D89 D90 D91 D92 D93 D94 D95 D96 D97 D98</t>
-  </si>
-  <si>
-    <t>SK6812_EC15</t>
-  </si>
-  <si>
-    <t>LED_SK6812_EC15_1.5x1.5mm</t>
-  </si>
-  <si>
-    <t>Library</t>
-  </si>
-  <si>
-    <t>98</t>
-  </si>
-  <si>
-    <t>https://mm.digikey.com/Volume0/opasdata/d220001/medias/docus/2384/CL05A105KP5NNN_Specsheet%20(1).pdf</t>
-  </si>
-  <si>
-    <t>pedalboard-display(98)</t>
-  </si>
-  <si>
-    <t>97.0000</t>
-  </si>
-  <si>
-    <t>1.4000</t>
-  </si>
-  <si>
-    <t>OLED display 128x64</t>
-  </si>
-  <si>
-    <t>OLED-128O064D</t>
-  </si>
-  <si>
-    <t>Display_Graphic</t>
-  </si>
-  <si>
-    <t>DS1 DS2</t>
-  </si>
-  <si>
-    <t>Display</t>
-  </si>
-  <si>
-    <t>https://www.vishay.com/docs/37902/oled128o064dbpp3n00000.pdf</t>
-  </si>
-  <si>
-    <t>pedalboard-display(2)</t>
-  </si>
-  <si>
-    <t>47.2000</t>
-  </si>
-  <si>
-    <t>14.7550</t>
-  </si>
-  <si>
-    <t>20.7000</t>
-  </si>
-  <si>
-    <t>2.0000</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>Conn_01x03_Pin</t>
-  </si>
-  <si>
-    <t>Connector</t>
-  </si>
-  <si>
-    <t>J1</t>
-  </si>
-  <si>
-    <t>JST_PH_B3B-PH-SM4-TB_1x03-1MP_P2.00mm_Vertical</t>
-  </si>
-  <si>
-    <t>Connector_JST</t>
-  </si>
-  <si>
-    <t>/</t>
-  </si>
-  <si>
-    <t>pedalboard-display(1)</t>
-  </si>
-  <si>
-    <t>87.0000</t>
-  </si>
-  <si>
-    <t>101.0000</t>
-  </si>
-  <si>
-    <t>bottom</t>
-  </si>
-  <si>
-    <t>10.4000</t>
-  </si>
-  <si>
-    <t>6.5000</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>Generic connector, single row, 01x04, script generated</t>
-  </si>
-  <si>
-    <t>Conn_01x04_Pin</t>
-  </si>
-  <si>
-    <t>J3</t>
-  </si>
-  <si>
-    <t>OLED STEMMA</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>R1</t>
-  </si>
-  <si>
-    <t>330</t>
-  </si>
-  <si>
-    <t>R_0402_1005Metric</t>
-  </si>
-  <si>
-    <t>Resistor_SMD</t>
-  </si>
-  <si>
-    <t>https://www.passivecomponent.com/wp-content/uploads/chipR/ASC_WR.pdf</t>
-  </si>
-  <si>
-    <t>74.0000</t>
-  </si>
-  <si>
-    <t>102.9900</t>
-  </si>
-  <si>
-    <t>270.0000</t>
-  </si>
-  <si>
-    <t>1.5600</t>
-  </si>
-  <si>
-    <t>0.6400</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>Resistor</t>
-  </si>
-  <si>
-    <t>R2</t>
-  </si>
-  <si>
-    <t>10K</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>R3 R5</t>
-  </si>
-  <si>
-    <t>390K</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>push-pull, active-high, 200mS reset delay, 2.93V threshold voltage, SOT-23</t>
-  </si>
-  <si>
-    <t>TLV810EA29DBZ</t>
-  </si>
-  <si>
-    <t>Power_Supervisor</t>
-  </si>
-  <si>
-    <t>U1</t>
-  </si>
-  <si>
-    <t>SOT-23</t>
-  </si>
-  <si>
-    <t>Package_TO_SOT_SMD</t>
-  </si>
-  <si>
-    <t>https://www.ti.com/lit/ds/symlink/tlv803e.pdf</t>
+    <t>THT</t>
+  </si>
+  <si>
+    <t>32.1000</t>
+  </si>
+  <si>
+    <t>54.1772</t>
   </si>
   <si>
     <t>KiBot Bill of Materials</t>
@@ -412,7 +335,7 @@
     <t>Date:</t>
   </si>
   <si>
-    <t>2024-10-04</t>
+    <t>2024-10-05</t>
   </si>
   <si>
     <t>KiCad Version:</t>
@@ -427,40 +350,16 @@
     <t>Component Count:</t>
   </si>
   <si>
-    <t>216 (205 SMD/ 0 THT)</t>
+    <t>202 (200 SMD/ 2 THT)</t>
   </si>
   <si>
     <t>Fitted Components:</t>
   </si>
   <si>
-    <t>213 (204 SMD/ 0 THT)</t>
-  </si>
-  <si>
     <t>Number of PCBs:</t>
   </si>
   <si>
     <t>Total Components:</t>
-  </si>
-  <si>
-    <t>J2</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> (DNF)</t>
-  </si>
-  <si>
-    <t>4.7000</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>R6 R7</t>
   </si>
   <si>
     <t>Columns colors</t>
@@ -535,7 +434,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE6F9FF"/>
+        <fgColor rgb="FFFF8080"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -553,7 +452,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF0FFFF"/>
+        <fgColor rgb="FFFF8A8A"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -565,13 +464,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF8A8A"/>
+        <fgColor rgb="FFF0FFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF8080"/>
+        <fgColor rgb="FFE6F9FF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -647,58 +546,6 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1464384</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>123779</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-            <a:ext uri="{C183D7F6-B498-43B3-948B-1728B52AA6E4}">
-              <adec:decorative xmlns:adec="http://schemas.microsoft.com/office/drawing/2017/decorative" val="1"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="2378784" cy="1285829"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>16584</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>123779</xdr:rowOff>
     </xdr:to>
@@ -1024,7 +871,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V18"/>
+  <dimension ref="A1:V14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
@@ -1034,7 +881,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="60.7109375" customWidth="1"/>
+    <col min="2" max="2" width="59.7109375" customWidth="1"/>
     <col min="3" max="3" width="19.7109375" customWidth="1"/>
     <col min="4" max="4" width="23.7109375" customWidth="1"/>
     <col min="5" max="5" width="60.7109375" customWidth="1"/>
@@ -1046,7 +893,7 @@
     <col min="11" max="11" width="16.7109375" customWidth="1"/>
     <col min="12" max="12" width="60.7109375" customWidth="1"/>
     <col min="13" max="13" width="19.7109375" customWidth="1"/>
-    <col min="14" max="14" width="28.7109375" customWidth="1"/>
+    <col min="14" max="14" width="27.7109375" customWidth="1"/>
     <col min="15" max="15" width="21.7109375" customWidth="1"/>
     <col min="16" max="16" width="21.7109375" customWidth="1"/>
     <col min="17" max="17" width="23.7109375" customWidth="1"/>
@@ -1059,7 +906,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1083,55 +930,55 @@
     </row>
     <row r="2" spans="1:22">
       <c r="C2" s="2" t="s">
-        <v>124</v>
+        <v>99</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="F2" s="3">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:22">
       <c r="C3" s="2" t="s">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:22">
       <c r="C4" s="2" t="s">
-        <v>127</v>
+        <v>102</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>137</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:22">
       <c r="C5" s="2" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>138</v>
+        <v>112</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1139,16 +986,16 @@
     </row>
     <row r="6" spans="1:22">
       <c r="C6" s="2" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="F6" s="3">
-        <v>213</v>
+        <v>202</v>
       </c>
     </row>
     <row r="8" spans="1:22">
@@ -1287,7 +1134,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:22" ht="105" customHeight="1">
       <c r="A10" s="8" t="s">
         <v>43</v>
       </c>
@@ -1298,46 +1145,46 @@
         <v>44</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="G10" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="H10" s="11" t="s">
-        <v>47</v>
+      <c r="G10" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>49</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="K10" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="L10" s="11" t="s">
-        <v>49</v>
+      <c r="L10" s="10" t="s">
+        <v>50</v>
       </c>
       <c r="M10" s="10" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="N10" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="O10" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="P10" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="O10" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="P10" s="10" t="s">
-        <v>53</v>
-      </c>
       <c r="Q10" s="10" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="R10" s="10" t="s">
         <v>38</v>
@@ -1349,66 +1196,66 @@
         <v>40</v>
       </c>
       <c r="U10" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="V10" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
+      <c r="A11" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="V10" s="10" t="s">
+      <c r="D11" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" ht="105" customHeight="1">
-      <c r="A11" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="H11" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>61</v>
-      </c>
       <c r="I11" s="5" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="K11" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="L11" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="M11" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="N11" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>37</v>
       </c>
       <c r="R11" s="7" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="S11" s="7" t="s">
         <v>39</v>
@@ -1417,7 +1264,7 @@
         <v>40</v>
       </c>
       <c r="U11" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="V11" s="7" t="s">
         <v>66</v>
@@ -1425,43 +1272,43 @@
     </row>
     <row r="12" spans="1:22">
       <c r="A12" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" s="9" t="s">
         <v>67</v>
       </c>
+      <c r="B12" s="11" t="s">
+        <v>68</v>
+      </c>
       <c r="C12" s="10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>70</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="K12" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="L12" s="10" t="s">
-        <v>72</v>
+      <c r="L12" s="9" t="s">
+        <v>59</v>
       </c>
       <c r="M12" s="10" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="N12" s="8" t="s">
         <v>73</v>
@@ -1473,10 +1320,10 @@
         <v>75</v>
       </c>
       <c r="Q12" s="10" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="R12" s="10" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="S12" s="10" t="s">
         <v>39</v>
@@ -1488,33 +1335,33 @@
         <v>76</v>
       </c>
       <c r="V12" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="30" customHeight="1">
+      <c r="A13" s="5" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="13" spans="1:22">
-      <c r="A13" s="5" t="s">
+      <c r="B13" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="B13" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="7" t="s">
+      <c r="D13" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="F13" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G13" s="7" t="s">
+      <c r="H13" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="I13" s="5" t="s">
         <v>22</v>
@@ -1525,26 +1372,26 @@
       <c r="K13" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="L13" s="12" t="s">
-        <v>49</v>
+      <c r="L13" s="7" t="s">
+        <v>83</v>
       </c>
       <c r="M13" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="N13" s="5" t="s">
+      <c r="P13" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="O13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="P13" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>37</v>
-      </c>
       <c r="R13" s="7" t="s">
-        <v>88</v>
+        <v>38</v>
       </c>
       <c r="S13" s="7" t="s">
         <v>39</v>
@@ -1553,350 +1400,78 @@
         <v>40</v>
       </c>
       <c r="U13" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="V13" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:22">
       <c r="A14" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="G14" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>47</v>
+      <c r="H14" s="10" t="s">
+        <v>49</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="K14" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="L14" s="11" t="s">
-        <v>49</v>
+      <c r="L14" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="M14" s="10" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="N14" s="8" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="O14" s="10" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="P14" s="10" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="Q14" s="10" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="R14" s="10" t="s">
         <v>38</v>
       </c>
       <c r="S14" s="10" t="s">
-        <v>39</v>
+        <v>95</v>
       </c>
       <c r="T14" s="10" t="s">
         <v>40</v>
       </c>
       <c r="U14" s="10" t="s">
-        <v>54</v>
+        <v>96</v>
       </c>
       <c r="V14" s="10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" ht="30" customHeight="1">
-      <c r="A15" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J15" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="K15" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="M15" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="N15" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="O15" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="R15" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="S15" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="T15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="U15" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="V15" s="7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22">
-      <c r="A16" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="J16" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="K16" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="L16" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="M16" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="N16" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="O16" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="P16" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q16" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="R16" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="S16" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="T16" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="U16" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="V16" s="10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22">
-      <c r="A17" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="J17" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="K17" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="L17" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="M17" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="N17" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="R17" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="S17" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="T17" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="U17" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="V17" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" ht="30" customHeight="1">
-      <c r="A18" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="H18" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="I18" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="J18" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="K18" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="L18" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="M18" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="N18" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="O18" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="P18" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q18" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="R18" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="S18" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="T18" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="U18" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="V18" s="10" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1911,349 +1486,6 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" customWidth="1"/>
-    <col min="7" max="7" width="51.7109375" customWidth="1"/>
-    <col min="8" max="8" width="23.7109375" customWidth="1"/>
-    <col min="9" max="9" width="26.7109375" customWidth="1"/>
-    <col min="10" max="10" width="24.7109375" customWidth="1"/>
-    <col min="11" max="11" width="16.7109375" customWidth="1"/>
-    <col min="12" max="12" width="19.7109375" customWidth="1"/>
-    <col min="13" max="13" width="19.7109375" customWidth="1"/>
-    <col min="14" max="14" width="26.7109375" customWidth="1"/>
-    <col min="15" max="15" width="21.7109375" customWidth="1"/>
-    <col min="16" max="16" width="21.7109375" customWidth="1"/>
-    <col min="17" max="17" width="23.7109375" customWidth="1"/>
-    <col min="18" max="18" width="24.7109375" customWidth="1"/>
-    <col min="19" max="19" width="24.7109375" customWidth="1"/>
-    <col min="20" max="20" width="28.7109375" customWidth="1"/>
-    <col min="21" max="21" width="26.7109375" customWidth="1"/>
-    <col min="22" max="22" width="26.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:22" ht="32" customHeight="1">
-      <c r="C1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-    </row>
-    <row r="2" spans="1:22">
-      <c r="C2" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="F2" s="3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22">
-      <c r="C3" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22">
-      <c r="C4" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22">
-      <c r="C5" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="F5" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22">
-      <c r="C6" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="F6" s="3">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22">
-      <c r="A8" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="N8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="O8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="P8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="R8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="S8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="T8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="U8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="V8" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22">
-      <c r="A9" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="L9" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="M9" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="N9" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="O9" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="R9" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="S9" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="T9" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="U9" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="V9" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22">
-      <c r="A10" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="K10" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="L10" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="M10" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="N10" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="O10" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="P10" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q10" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="R10" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="S10" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="T10" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="U10" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="V10" s="10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C1:V1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2265,27 +1497,27 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>147</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="7" t="s">
-        <v>148</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="5" t="s">
-        <v>149</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="6" t="s">
-        <v>150</v>
+      <c r="A4" s="12" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="12" t="s">
-        <v>151</v>
+      <c r="A5" s="6" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/latest/BoM/Positional/pedalboard-display-bom.xlsx
+++ b/latest/BoM/Positional/pedalboard-display-bom.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="118">
   <si>
     <t>Row</t>
   </si>
@@ -194,9 +194,6 @@
     <t>JST_PH_B3B-PH-SM4-TB_1x03-1MP_P2.00mm_Vertical</t>
   </si>
   <si>
-    <t>Connector_JST</t>
-  </si>
-  <si>
     <t>~</t>
   </si>
   <si>
@@ -296,10 +293,10 @@
     <t>OLED_128x128</t>
   </si>
   <si>
-    <t>43.2500</t>
-  </si>
-  <si>
-    <t>51.2000</t>
+    <t>49.5000</t>
+  </si>
+  <si>
+    <t>34.8000</t>
   </si>
   <si>
     <t>0.0000</t>
@@ -906,7 +903,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -930,13 +927,13 @@
     </row>
     <row r="2" spans="1:22">
       <c r="C2" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>45</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F2" s="3">
         <v>6</v>
@@ -944,41 +941,41 @@
     </row>
     <row r="3" spans="1:22">
       <c r="C3" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>101</v>
-      </c>
       <c r="E3" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:22">
       <c r="C4" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>103</v>
-      </c>
       <c r="E4" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:22">
       <c r="C5" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>105</v>
-      </c>
       <c r="E5" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -986,13 +983,13 @@
     </row>
     <row r="6" spans="1:22">
       <c r="C6" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>107</v>
-      </c>
       <c r="E6" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F6" s="3">
         <v>202</v>
@@ -1225,7 +1222,7 @@
         <v>57</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="I11" s="5" t="s">
         <v>43</v>
@@ -1237,25 +1234,25 @@
         <v>31</v>
       </c>
       <c r="L11" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="M11" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="M11" s="7" t="s">
+      <c r="N11" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="N11" s="5" t="s">
+      <c r="O11" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="O11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>37</v>
       </c>
       <c r="R11" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="S11" s="7" t="s">
         <v>39</v>
@@ -1264,36 +1261,36 @@
         <v>40</v>
       </c>
       <c r="U11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="V11" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="V11" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:22">
       <c r="A12" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="C12" s="10" t="s">
         <v>68</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>69</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>55</v>
       </c>
       <c r="E12" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="G12" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="G12" s="10" t="s">
-        <v>72</v>
-      </c>
       <c r="H12" s="10" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="I12" s="8" t="s">
         <v>22</v>
@@ -1305,25 +1302,25 @@
         <v>31</v>
       </c>
       <c r="L12" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="M12" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="M12" s="10" t="s">
-        <v>60</v>
-      </c>
       <c r="N12" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="O12" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="O12" s="10" t="s">
+      <c r="P12" s="10" t="s">
         <v>74</v>
-      </c>
-      <c r="P12" s="10" t="s">
-        <v>75</v>
       </c>
       <c r="Q12" s="10" t="s">
         <v>37</v>
       </c>
       <c r="R12" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="S12" s="10" t="s">
         <v>39</v>
@@ -1332,36 +1329,36 @@
         <v>40</v>
       </c>
       <c r="U12" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="V12" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="30" customHeight="1">
       <c r="A13" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="H13" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="I13" s="5" t="s">
         <v>22</v>
@@ -1373,22 +1370,22 @@
         <v>31</v>
       </c>
       <c r="L13" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="M13" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="N13" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="R13" s="7" t="s">
         <v>38</v>
@@ -1400,33 +1397,33 @@
         <v>40</v>
       </c>
       <c r="U13" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="V13" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="V13" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:22">
       <c r="A14" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>45</v>
       </c>
       <c r="E14" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="G14" s="10" t="s">
         <v>90</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>91</v>
       </c>
       <c r="H14" s="10" t="s">
         <v>49</v>
@@ -1444,34 +1441,34 @@
         <v>23</v>
       </c>
       <c r="M14" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="N14" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="N14" s="8" t="s">
-        <v>61</v>
-      </c>
       <c r="O14" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="P14" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="P14" s="10" t="s">
+      <c r="Q14" s="10" t="s">
         <v>93</v>
-      </c>
-      <c r="Q14" s="10" t="s">
-        <v>94</v>
       </c>
       <c r="R14" s="10" t="s">
         <v>38</v>
       </c>
       <c r="S14" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="T14" s="10" t="s">
         <v>40</v>
       </c>
       <c r="U14" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="V14" s="10" t="s">
         <v>96</v>
-      </c>
-      <c r="V14" s="10" t="s">
-        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1497,27 +1494,27 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/latest/BoM/Positional/pedalboard-display-bom.xlsx
+++ b/latest/BoM/Positional/pedalboard-display-bom.xlsx
@@ -239,10 +239,10 @@
     <t>pedalboard-display(1)</t>
   </si>
   <si>
-    <t>107.0000</t>
-  </si>
-  <si>
-    <t>100.5500</t>
+    <t>124.0000</t>
+  </si>
+  <si>
+    <t>68.0000</t>
   </si>
   <si>
     <t>12.4000</t>

--- a/latest/BoM/Positional/pedalboard-display-bom.xlsx
+++ b/latest/BoM/Positional/pedalboard-display-bom.xlsx
@@ -8,17 +8,19 @@
   </bookViews>
   <sheets>
     <sheet name="BoM" sheetId="1" r:id="rId1"/>
-    <sheet name="Colors" sheetId="2" r:id="rId2"/>
+    <sheet name="DNF" sheetId="2" r:id="rId2"/>
+    <sheet name="Colors" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">BoM!$9:$9</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">DNF!$9:$9</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="127">
   <si>
     <t>Row</t>
   </si>
@@ -188,7 +190,10 @@
     <t>Connector</t>
   </si>
   <si>
-    <t>J1 J2</t>
+    <t>J1</t>
+  </si>
+  <si>
+    <t>LED-IN</t>
   </si>
   <si>
     <t>JST_PH_B3B-PH-SM4-TB_1x03-1MP_P2.00mm_Vertical</t>
@@ -200,99 +205,99 @@
     <t>/</t>
   </si>
   <si>
+    <t>pedalboard-display(1)</t>
+  </si>
+  <si>
+    <t>87.0000</t>
+  </si>
+  <si>
+    <t>101.0000</t>
+  </si>
+  <si>
+    <t>bottom</t>
+  </si>
+  <si>
+    <t>10.4000</t>
+  </si>
+  <si>
+    <t>6.5000</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Generic connector, single row, 01x04, script generated</t>
+  </si>
+  <si>
+    <t>Conn_01x04_Pin</t>
+  </si>
+  <si>
+    <t>J3</t>
+  </si>
+  <si>
+    <t>OLED</t>
+  </si>
+  <si>
+    <t>JST_PH_B4B-PH-SM4-TB_1x04-1MP_P2.00mm_Vertical</t>
+  </si>
+  <si>
+    <t>124.0000</t>
+  </si>
+  <si>
+    <t>68.0000</t>
+  </si>
+  <si>
+    <t>12.4000</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>330</t>
+  </si>
+  <si>
+    <t>R_0402_1005Metric</t>
+  </si>
+  <si>
+    <t>Resistor_SMD</t>
+  </si>
+  <si>
+    <t>https://www.passivecomponent.com/wp-content/uploads/chipR/ASC_WR.pdf</t>
+  </si>
+  <si>
+    <t>74.0000</t>
+  </si>
+  <si>
+    <t>102.9900</t>
+  </si>
+  <si>
+    <t>270.0000</t>
+  </si>
+  <si>
+    <t>1.5600</t>
+  </si>
+  <si>
+    <t>0.6400</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>U1 U2</t>
+  </si>
+  <si>
+    <t>OLED_128x128</t>
+  </si>
+  <si>
     <t>pedalboard-display(2)</t>
   </si>
   <si>
-    <t>87.0000</t>
-  </si>
-  <si>
-    <t>101.0000</t>
-  </si>
-  <si>
-    <t>bottom</t>
-  </si>
-  <si>
-    <t>10.4000</t>
-  </si>
-  <si>
-    <t>6.5000</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>Generic connector, single row, 01x04, script generated</t>
-  </si>
-  <si>
-    <t>Conn_01x04_Pin</t>
-  </si>
-  <si>
-    <t>J3</t>
-  </si>
-  <si>
-    <t>OLED</t>
-  </si>
-  <si>
-    <t>JST_PH_B4B-PH-SM4-TB_1x04-1MP_P2.00mm_Vertical</t>
-  </si>
-  <si>
-    <t>pedalboard-display(1)</t>
-  </si>
-  <si>
-    <t>124.0000</t>
-  </si>
-  <si>
-    <t>68.0000</t>
-  </si>
-  <si>
-    <t>12.4000</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>R1</t>
-  </si>
-  <si>
-    <t>330</t>
-  </si>
-  <si>
-    <t>R_0402_1005Metric</t>
-  </si>
-  <si>
-    <t>Resistor_SMD</t>
-  </si>
-  <si>
-    <t>https://www.passivecomponent.com/wp-content/uploads/chipR/ASC_WR.pdf</t>
-  </si>
-  <si>
-    <t>74.0000</t>
-  </si>
-  <si>
-    <t>102.9900</t>
-  </si>
-  <si>
-    <t>270.0000</t>
-  </si>
-  <si>
-    <t>1.5600</t>
-  </si>
-  <si>
-    <t>0.6400</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>U1 U2</t>
-  </si>
-  <si>
-    <t>OLED_128x128</t>
-  </si>
-  <si>
     <t>49.5000</t>
   </si>
   <si>
@@ -353,10 +358,34 @@
     <t>Fitted Components:</t>
   </si>
   <si>
+    <t>201 (199 SMD/ 2 THT)</t>
+  </si>
+  <si>
     <t>Number of PCBs:</t>
   </si>
   <si>
     <t>Total Components:</t>
+  </si>
+  <si>
+    <t>J2</t>
+  </si>
+  <si>
+    <t>LED-OUT</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (DNF)</t>
+  </si>
+  <si>
+    <t>4.7000</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>no</t>
   </si>
   <si>
     <t>Columns colors</t>
@@ -543,6 +572,58 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1464384</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>123779</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+            <a:ext uri="{C183D7F6-B498-43B3-948B-1728B52AA6E4}">
+              <adec:decorative xmlns:adec="http://schemas.microsoft.com/office/drawing/2017/decorative" val="1"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2378784" cy="1285829"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>16584</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>123779</xdr:rowOff>
     </xdr:to>
@@ -903,7 +984,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -927,55 +1008,55 @@
     </row>
     <row r="2" spans="1:22">
       <c r="C2" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>45</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F2" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:22">
       <c r="C3" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:22">
       <c r="C4" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:22">
       <c r="C5" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -983,16 +1064,16 @@
     </row>
     <row r="6" spans="1:22">
       <c r="C6" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F6" s="3">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="8" spans="1:22">
@@ -1216,43 +1297,43 @@
         <v>56</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H11" s="7" t="s">
         <v>49</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="K11" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>37</v>
       </c>
       <c r="R11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S11" s="7" t="s">
         <v>39</v>
@@ -1261,33 +1342,33 @@
         <v>40</v>
       </c>
       <c r="U11" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="V11" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:22">
       <c r="A12" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>55</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H12" s="10" t="s">
         <v>49</v>
@@ -1302,13 +1383,13 @@
         <v>31</v>
       </c>
       <c r="L12" s="9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M12" s="10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N12" s="8" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="O12" s="10" t="s">
         <v>73</v>
@@ -1320,7 +1401,7 @@
         <v>37</v>
       </c>
       <c r="R12" s="10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S12" s="10" t="s">
         <v>39</v>
@@ -1332,7 +1413,7 @@
         <v>75</v>
       </c>
       <c r="V12" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="30" customHeight="1">
@@ -1373,10 +1454,10 @@
         <v>82</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>83</v>
@@ -1411,7 +1492,7 @@
         <v>23</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>45</v>
@@ -1420,7 +1501,7 @@
         <v>89</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G14" s="10" t="s">
         <v>90</v>
@@ -1441,34 +1522,34 @@
         <v>23</v>
       </c>
       <c r="M14" s="10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N14" s="8" t="s">
-        <v>60</v>
+        <v>91</v>
       </c>
       <c r="O14" s="10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="P14" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Q14" s="10" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="R14" s="10" t="s">
         <v>38</v>
       </c>
       <c r="S14" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="T14" s="10" t="s">
         <v>40</v>
       </c>
       <c r="U14" s="10" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="V14" s="10" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1483,6 +1564,281 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:V9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" customWidth="1"/>
+    <col min="7" max="7" width="51.7109375" customWidth="1"/>
+    <col min="8" max="8" width="23.7109375" customWidth="1"/>
+    <col min="9" max="9" width="26.7109375" customWidth="1"/>
+    <col min="10" max="10" width="24.7109375" customWidth="1"/>
+    <col min="11" max="11" width="16.7109375" customWidth="1"/>
+    <col min="12" max="12" width="19.7109375" customWidth="1"/>
+    <col min="13" max="13" width="19.7109375" customWidth="1"/>
+    <col min="14" max="14" width="26.7109375" customWidth="1"/>
+    <col min="15" max="15" width="21.7109375" customWidth="1"/>
+    <col min="16" max="16" width="21.7109375" customWidth="1"/>
+    <col min="17" max="17" width="23.7109375" customWidth="1"/>
+    <col min="18" max="18" width="24.7109375" customWidth="1"/>
+    <col min="19" max="19" width="24.7109375" customWidth="1"/>
+    <col min="20" max="20" width="28.7109375" customWidth="1"/>
+    <col min="21" max="21" width="26.7109375" customWidth="1"/>
+    <col min="22" max="22" width="26.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" ht="32" customHeight="1">
+      <c r="C1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+    </row>
+    <row r="2" spans="1:22">
+      <c r="C2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
+      <c r="C3" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
+      <c r="C4" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
+      <c r="C5" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
+      <c r="C6" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F6" s="3">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
+      <c r="A8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="T8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="U8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="V8" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
+      <c r="A9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="R9" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="S9" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="T9" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="U9" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="V9" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C1:V1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1494,27 +1850,27 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="7" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="5" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="12" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="6" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/latest/BoM/Positional/pedalboard-display-bom.xlsx
+++ b/latest/BoM/Positional/pedalboard-display-bom.xlsx
@@ -271,118 +271,118 @@
     <t>https://www.passivecomponent.com/wp-content/uploads/chipR/ASC_WR.pdf</t>
   </si>
   <si>
-    <t>74.0000</t>
-  </si>
-  <si>
-    <t>102.9900</t>
+    <t>73.4000</t>
+  </si>
+  <si>
+    <t>102.5000</t>
+  </si>
+  <si>
+    <t>0.0000</t>
+  </si>
+  <si>
+    <t>1.5600</t>
+  </si>
+  <si>
+    <t>0.6400</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>U1 U2</t>
+  </si>
+  <si>
+    <t>OLED_128x128</t>
+  </si>
+  <si>
+    <t>pedalboard-display(2)</t>
+  </si>
+  <si>
+    <t>49.5000</t>
+  </si>
+  <si>
+    <t>34.8000</t>
+  </si>
+  <si>
+    <t>THT</t>
+  </si>
+  <si>
+    <t>32.1000</t>
+  </si>
+  <si>
+    <t>54.1772</t>
+  </si>
+  <si>
+    <t>KiBot Bill of Materials</t>
+  </si>
+  <si>
+    <t>Schematic:</t>
+  </si>
+  <si>
+    <t>Variant:</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>Revision:</t>
+  </si>
+  <si>
+    <t>0.0.0-RC1</t>
+  </si>
+  <si>
+    <t>Date:</t>
+  </si>
+  <si>
+    <t>2024-10-05</t>
+  </si>
+  <si>
+    <t>KiCad Version:</t>
+  </si>
+  <si>
+    <t>8.0.4+1</t>
+  </si>
+  <si>
+    <t>Component Groups:</t>
+  </si>
+  <si>
+    <t>Component Count:</t>
+  </si>
+  <si>
+    <t>202 (200 SMD/ 2 THT)</t>
+  </si>
+  <si>
+    <t>Fitted Components:</t>
+  </si>
+  <si>
+    <t>201 (199 SMD/ 2 THT)</t>
+  </si>
+  <si>
+    <t>Number of PCBs:</t>
+  </si>
+  <si>
+    <t>Total Components:</t>
+  </si>
+  <si>
+    <t>J2</t>
+  </si>
+  <si>
+    <t>LED-OUT</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (DNF)</t>
+  </si>
+  <si>
+    <t>4.7000</t>
+  </si>
+  <si>
+    <t>25.0000</t>
   </si>
   <si>
     <t>270.0000</t>
-  </si>
-  <si>
-    <t>1.5600</t>
-  </si>
-  <si>
-    <t>0.6400</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>U1 U2</t>
-  </si>
-  <si>
-    <t>OLED_128x128</t>
-  </si>
-  <si>
-    <t>pedalboard-display(2)</t>
-  </si>
-  <si>
-    <t>49.5000</t>
-  </si>
-  <si>
-    <t>34.8000</t>
-  </si>
-  <si>
-    <t>0.0000</t>
-  </si>
-  <si>
-    <t>THT</t>
-  </si>
-  <si>
-    <t>32.1000</t>
-  </si>
-  <si>
-    <t>54.1772</t>
-  </si>
-  <si>
-    <t>KiBot Bill of Materials</t>
-  </si>
-  <si>
-    <t>Schematic:</t>
-  </si>
-  <si>
-    <t>Variant:</t>
-  </si>
-  <si>
-    <t>default</t>
-  </si>
-  <si>
-    <t>Revision:</t>
-  </si>
-  <si>
-    <t>0.0.0-RC1</t>
-  </si>
-  <si>
-    <t>Date:</t>
-  </si>
-  <si>
-    <t>2024-10-05</t>
-  </si>
-  <si>
-    <t>KiCad Version:</t>
-  </si>
-  <si>
-    <t>8.0.4+1</t>
-  </si>
-  <si>
-    <t>Component Groups:</t>
-  </si>
-  <si>
-    <t>Component Count:</t>
-  </si>
-  <si>
-    <t>202 (200 SMD/ 2 THT)</t>
-  </si>
-  <si>
-    <t>Fitted Components:</t>
-  </si>
-  <si>
-    <t>201 (199 SMD/ 2 THT)</t>
-  </si>
-  <si>
-    <t>Number of PCBs:</t>
-  </si>
-  <si>
-    <t>Total Components:</t>
-  </si>
-  <si>
-    <t>J2</t>
-  </si>
-  <si>
-    <t>LED-OUT</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> (DNF)</t>
-  </si>
-  <si>
-    <t>4.7000</t>
-  </si>
-  <si>
-    <t>25.0000</t>
   </si>
   <si>
     <t>no</t>
@@ -984,7 +984,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1008,13 +1008,13 @@
     </row>
     <row r="2" spans="1:22">
       <c r="C2" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>45</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F2" s="3">
         <v>7</v>
@@ -1022,41 +1022,41 @@
     </row>
     <row r="3" spans="1:22">
       <c r="C3" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>101</v>
-      </c>
       <c r="E3" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:22">
       <c r="C4" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>103</v>
-      </c>
       <c r="E4" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>111</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:22">
       <c r="C5" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>105</v>
-      </c>
       <c r="E5" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1064,13 +1064,13 @@
     </row>
     <row r="6" spans="1:22">
       <c r="C6" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>107</v>
-      </c>
       <c r="E6" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F6" s="3">
         <v>201</v>
@@ -1534,22 +1534,22 @@
         <v>93</v>
       </c>
       <c r="Q14" s="10" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="R14" s="10" t="s">
         <v>38</v>
       </c>
       <c r="S14" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="T14" s="10" t="s">
         <v>40</v>
       </c>
       <c r="U14" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="V14" s="10" t="s">
         <v>96</v>
-      </c>
-      <c r="V14" s="10" t="s">
-        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1599,7 +1599,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1623,13 +1623,13 @@
     </row>
     <row r="2" spans="1:22">
       <c r="C2" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>45</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F2" s="3">
         <v>7</v>
@@ -1637,41 +1637,41 @@
     </row>
     <row r="3" spans="1:22">
       <c r="C3" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>101</v>
-      </c>
       <c r="E3" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:22">
       <c r="C4" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>103</v>
-      </c>
       <c r="E4" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>111</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:22">
       <c r="C5" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>105</v>
-      </c>
       <c r="E5" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1679,13 +1679,13 @@
     </row>
     <row r="6" spans="1:22">
       <c r="C6" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>107</v>
-      </c>
       <c r="E6" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F6" s="3">
         <v>201</v>
@@ -1773,10 +1773,10 @@
         <v>55</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>58</v>
@@ -1788,10 +1788,10 @@
         <v>22</v>
       </c>
       <c r="J9" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="K9" s="5" t="s">
         <v>117</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>118</v>
       </c>
       <c r="L9" s="6" t="s">
         <v>59</v>
@@ -1803,13 +1803,13 @@
         <v>61</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="R9" s="7" t="s">
         <v>64</v>

--- a/latest/BoM/Positional/pedalboard-display-bom.xlsx
+++ b/latest/BoM/Positional/pedalboard-display-bom.xlsx
@@ -211,7 +211,7 @@
     <t>87.0000</t>
   </si>
   <si>
-    <t>101.0000</t>
+    <t>83.0000</t>
   </si>
   <si>
     <t>bottom</t>
@@ -274,7 +274,7 @@
     <t>73.4000</t>
   </si>
   <si>
-    <t>102.5000</t>
+    <t>84.5000</t>
   </si>
   <si>
     <t>0.0000</t>

--- a/latest/BoM/Positional/pedalboard-display-bom.xlsx
+++ b/latest/BoM/Positional/pedalboard-display-bom.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="135">
   <si>
     <t>Row</t>
   </si>
@@ -349,7 +349,7 @@
     <t>Component Count:</t>
   </si>
   <si>
-    <t>202 (200 SMD/ 2 THT)</t>
+    <t>204 (202 SMD/ 2 THT)</t>
   </si>
   <si>
     <t>Fitted Components:</t>
@@ -386,6 +386,30 @@
   </si>
   <si>
     <t>no</t>
+  </si>
+  <si>
+    <t>Resistor</t>
+  </si>
+  <si>
+    <t>R2 R3</t>
+  </si>
+  <si>
+    <t>3K3</t>
+  </si>
+  <si>
+    <t>R_0805_2012Metric</t>
+  </si>
+  <si>
+    <t>117.7500</t>
+  </si>
+  <si>
+    <t>60.0875</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t>2.8500</t>
   </si>
   <si>
     <t>Columns colors</t>
@@ -1017,7 +1041,7 @@
         <v>107</v>
       </c>
       <c r="F2" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:22">
@@ -1564,7 +1588,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V9"/>
+  <dimension ref="A1:V10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
@@ -1632,7 +1656,7 @@
         <v>107</v>
       </c>
       <c r="F2" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:22">
@@ -1825,6 +1849,74 @@
       </c>
       <c r="V9" s="7" t="s">
         <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
+      <c r="A10" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="M10" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="N10" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="O10" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="P10" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q10" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="R10" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="S10" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="T10" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="U10" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="V10" s="10" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1850,27 +1942,27 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="7" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="5" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="12" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="6" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/latest/BoM/Positional/pedalboard-display-bom.xlsx
+++ b/latest/BoM/Positional/pedalboard-display-bom.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="134">
   <si>
     <t>Row</t>
   </si>
@@ -211,7 +211,7 @@
     <t>87.0000</t>
   </si>
   <si>
-    <t>83.0000</t>
+    <t>78.7500</t>
   </si>
   <si>
     <t>bottom</t>
@@ -271,39 +271,42 @@
     <t>https://www.passivecomponent.com/wp-content/uploads/chipR/ASC_WR.pdf</t>
   </si>
   <si>
-    <t>73.4000</t>
-  </si>
-  <si>
-    <t>84.5000</t>
+    <t>135.4700</t>
+  </si>
+  <si>
+    <t>97.0200</t>
+  </si>
+  <si>
+    <t>270.0000</t>
+  </si>
+  <si>
+    <t>1.5600</t>
+  </si>
+  <si>
+    <t>0.6400</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>U1 U2</t>
+  </si>
+  <si>
+    <t>OLED_128x128</t>
+  </si>
+  <si>
+    <t>pedalboard-display(2)</t>
+  </si>
+  <si>
+    <t>49.5000</t>
+  </si>
+  <si>
+    <t>34.8000</t>
   </si>
   <si>
     <t>0.0000</t>
   </si>
   <si>
-    <t>1.5600</t>
-  </si>
-  <si>
-    <t>0.6400</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>U1 U2</t>
-  </si>
-  <si>
-    <t>OLED_128x128</t>
-  </si>
-  <si>
-    <t>pedalboard-display(2)</t>
-  </si>
-  <si>
-    <t>49.5000</t>
-  </si>
-  <si>
-    <t>34.8000</t>
-  </si>
-  <si>
     <t>THT</t>
   </si>
   <si>
@@ -376,13 +379,7 @@
     <t xml:space="preserve"> (DNF)</t>
   </si>
   <si>
-    <t>4.7000</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
-    <t>270.0000</t>
+    <t>87.2500</t>
   </si>
   <si>
     <t>no</t>
@@ -1008,7 +1005,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1032,13 +1029,13 @@
     </row>
     <row r="2" spans="1:22">
       <c r="C2" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>45</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F2" s="3">
         <v>8</v>
@@ -1046,41 +1043,41 @@
     </row>
     <row r="3" spans="1:22">
       <c r="C3" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:22">
       <c r="C4" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:22">
       <c r="C5" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1088,13 +1085,13 @@
     </row>
     <row r="6" spans="1:22">
       <c r="C6" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F6" s="3">
         <v>201</v>
@@ -1558,22 +1555,22 @@
         <v>93</v>
       </c>
       <c r="Q14" s="10" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="R14" s="10" t="s">
         <v>38</v>
       </c>
       <c r="S14" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="T14" s="10" t="s">
         <v>40</v>
       </c>
       <c r="U14" s="10" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="V14" s="10" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1623,7 +1620,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1647,13 +1644,13 @@
     </row>
     <row r="2" spans="1:22">
       <c r="C2" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>45</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F2" s="3">
         <v>8</v>
@@ -1661,41 +1658,41 @@
     </row>
     <row r="3" spans="1:22">
       <c r="C3" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:22">
       <c r="C4" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:22">
       <c r="C5" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1703,13 +1700,13 @@
     </row>
     <row r="6" spans="1:22">
       <c r="C6" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F6" s="3">
         <v>201</v>
@@ -1797,10 +1794,10 @@
         <v>55</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>58</v>
@@ -1812,10 +1809,10 @@
         <v>22</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L9" s="6" t="s">
         <v>59</v>
@@ -1827,13 +1824,13 @@
         <v>61</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>118</v>
+        <v>62</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>119</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>120</v>
+        <v>37</v>
       </c>
       <c r="R9" s="7" t="s">
         <v>64</v>
@@ -1842,7 +1839,7 @@
         <v>39</v>
       </c>
       <c r="T9" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="U9" s="7" t="s">
         <v>65</v>
@@ -1856,7 +1853,7 @@
         <v>43</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>77</v>
@@ -1865,13 +1862,13 @@
         <v>25</v>
       </c>
       <c r="E10" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="F10" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="G10" s="10" t="s">
         <v>124</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>125</v>
       </c>
       <c r="H10" s="10" t="s">
         <v>81</v>
@@ -1880,10 +1877,10 @@
         <v>43</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L10" s="9" t="s">
         <v>59</v>
@@ -1895,13 +1892,13 @@
         <v>91</v>
       </c>
       <c r="O10" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="P10" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="P10" s="10" t="s">
+      <c r="Q10" s="10" t="s">
         <v>127</v>
-      </c>
-      <c r="Q10" s="10" t="s">
-        <v>128</v>
       </c>
       <c r="R10" s="10" t="s">
         <v>64</v>
@@ -1910,10 +1907,10 @@
         <v>39</v>
       </c>
       <c r="T10" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="U10" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="V10" s="10" t="s">
         <v>52</v>
@@ -1942,27 +1939,27 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>

--- a/latest/BoM/Positional/pedalboard-display-bom.xlsx
+++ b/latest/BoM/Positional/pedalboard-display-bom.xlsx
@@ -310,10 +310,10 @@
     <t>THT</t>
   </si>
   <si>
-    <t>32.1000</t>
-  </si>
-  <si>
-    <t>54.1772</t>
+    <t>31.7000</t>
+  </si>
+  <si>
+    <t>53.9772</t>
   </si>
   <si>
     <t>KiBot Bill of Materials</t>

--- a/latest/BoM/Positional/pedalboard-display-bom.xlsx
+++ b/latest/BoM/Positional/pedalboard-display-bom.xlsx
@@ -331,13 +331,13 @@
     <t>Revision:</t>
   </si>
   <si>
-    <t>0.0.0-RC1</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Date:</t>
   </si>
   <si>
-    <t>2024-10-05</t>
+    <t>2024-10-16</t>
   </si>
   <si>
     <t>KiCad Version:</t>

--- a/latest/BoM/Positional/pedalboard-display-bom.xlsx
+++ b/latest/BoM/Positional/pedalboard-display-bom.xlsx
@@ -331,7 +331,7 @@
     <t>Revision:</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.0.1-RC</t>
   </si>
   <si>
     <t>Date:</t>

--- a/latest/BoM/Positional/pedalboard-display-bom.xlsx
+++ b/latest/BoM/Positional/pedalboard-display-bom.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="137">
   <si>
     <t>Row</t>
   </si>
@@ -193,7 +193,7 @@
     <t>J1</t>
   </si>
   <si>
-    <t>LED-IN</t>
+    <t>JST PH 3</t>
   </si>
   <si>
     <t>JST_PH_B3B-PH-SM4-TB_1x03-1MP_P2.00mm_Vertical</t>
@@ -235,66 +235,75 @@
     <t>J3</t>
   </si>
   <si>
+    <t>JST PH 4</t>
+  </si>
+  <si>
+    <t>JST_PH_B4B-PH-SM4-TB_1x04-1MP_P2.00mm_Vertical</t>
+  </si>
+  <si>
+    <t>124.0000</t>
+  </si>
+  <si>
+    <t>68.0000</t>
+  </si>
+  <si>
+    <t>12.4000</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>330</t>
+  </si>
+  <si>
+    <t>R_0402_1005Metric</t>
+  </si>
+  <si>
+    <t>Resistor_SMD</t>
+  </si>
+  <si>
+    <t>https://www.passivecomponent.com/wp-content/uploads/chipR/ASC_WR.pdf</t>
+  </si>
+  <si>
+    <t>135.4700</t>
+  </si>
+  <si>
+    <t>97.0200</t>
+  </si>
+  <si>
+    <t>270.0000</t>
+  </si>
+  <si>
+    <t>1.5600</t>
+  </si>
+  <si>
+    <t>0.6400</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
     <t>OLED</t>
   </si>
   <si>
-    <t>JST_PH_B4B-PH-SM4-TB_1x04-1MP_P2.00mm_Vertical</t>
-  </si>
-  <si>
-    <t>124.0000</t>
-  </si>
-  <si>
-    <t>68.0000</t>
-  </si>
-  <si>
-    <t>12.4000</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>R1</t>
-  </si>
-  <si>
-    <t>330</t>
-  </si>
-  <si>
-    <t>R_0402_1005Metric</t>
-  </si>
-  <si>
-    <t>Resistor_SMD</t>
-  </si>
-  <si>
-    <t>https://www.passivecomponent.com/wp-content/uploads/chipR/ASC_WR.pdf</t>
-  </si>
-  <si>
-    <t>135.4700</t>
-  </si>
-  <si>
-    <t>97.0200</t>
-  </si>
-  <si>
-    <t>270.0000</t>
-  </si>
-  <si>
-    <t>1.5600</t>
-  </si>
-  <si>
-    <t>0.6400</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
     <t>U1 U2</t>
   </si>
   <si>
+    <t>OLED I2C</t>
+  </si>
+  <si>
     <t>OLED_128x128</t>
   </si>
   <si>
+    <t>img/GME12812.pdf</t>
+  </si>
+  <si>
     <t>pedalboard-display(2)</t>
   </si>
   <si>
@@ -370,9 +379,6 @@
     <t>J2</t>
   </si>
   <si>
-    <t>LED-OUT</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -395,6 +401,9 @@
   </si>
   <si>
     <t>R_0805_2012Metric</t>
+  </si>
+  <si>
+    <t>https://www.seielect.com/catalog/sei-rmcf_rmcp.pdf</t>
   </si>
   <si>
     <t>117.7500</t>
@@ -1005,7 +1014,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1029,13 +1038,13 @@
     </row>
     <row r="2" spans="1:22">
       <c r="C2" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>45</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F2" s="3">
         <v>8</v>
@@ -1043,41 +1052,41 @@
     </row>
     <row r="3" spans="1:22">
       <c r="C3" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:22">
       <c r="C4" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:22">
       <c r="C5" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1085,13 +1094,13 @@
     </row>
     <row r="6" spans="1:22">
       <c r="C6" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F6" s="3">
         <v>201</v>
@@ -1513,19 +1522,19 @@
         <v>23</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>45</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>59</v>
+        <v>90</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>91</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H14" s="10" t="s">
         <v>49</v>
@@ -1539,38 +1548,38 @@
       <c r="K14" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="L14" s="9" t="s">
-        <v>23</v>
+      <c r="L14" s="10" t="s">
+        <v>93</v>
       </c>
       <c r="M14" s="10" t="s">
         <v>60</v>
       </c>
       <c r="N14" s="8" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="O14" s="10" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="P14" s="10" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="Q14" s="10" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="R14" s="10" t="s">
         <v>38</v>
       </c>
       <c r="S14" s="10" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="T14" s="10" t="s">
         <v>40</v>
       </c>
       <c r="U14" s="10" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="V14" s="10" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1605,7 +1614,7 @@
     <col min="9" max="9" width="26.7109375" customWidth="1"/>
     <col min="10" max="10" width="24.7109375" customWidth="1"/>
     <col min="11" max="11" width="16.7109375" customWidth="1"/>
-    <col min="12" max="12" width="19.7109375" customWidth="1"/>
+    <col min="12" max="12" width="55.7109375" customWidth="1"/>
     <col min="13" max="13" width="19.7109375" customWidth="1"/>
     <col min="14" max="14" width="26.7109375" customWidth="1"/>
     <col min="15" max="15" width="21.7109375" customWidth="1"/>
@@ -1620,7 +1629,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1644,13 +1653,13 @@
     </row>
     <row r="2" spans="1:22">
       <c r="C2" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>45</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F2" s="3">
         <v>8</v>
@@ -1658,41 +1667,41 @@
     </row>
     <row r="3" spans="1:22">
       <c r="C3" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:22">
       <c r="C4" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:22">
       <c r="C5" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1700,13 +1709,13 @@
     </row>
     <row r="6" spans="1:22">
       <c r="C6" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F6" s="3">
         <v>201</v>
@@ -1794,10 +1803,10 @@
         <v>55</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>116</v>
+        <v>57</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>58</v>
@@ -1809,10 +1818,10 @@
         <v>22</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L9" s="6" t="s">
         <v>59</v>
@@ -1827,7 +1836,7 @@
         <v>62</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q9" s="7" t="s">
         <v>37</v>
@@ -1839,7 +1848,7 @@
         <v>39</v>
       </c>
       <c r="T9" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="U9" s="7" t="s">
         <v>65</v>
@@ -1853,7 +1862,7 @@
         <v>43</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>77</v>
@@ -1862,13 +1871,13 @@
         <v>25</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H10" s="10" t="s">
         <v>81</v>
@@ -1877,28 +1886,28 @@
         <v>43</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="L10" s="9" t="s">
-        <v>59</v>
+        <v>120</v>
+      </c>
+      <c r="L10" s="10" t="s">
+        <v>127</v>
       </c>
       <c r="M10" s="10" t="s">
         <v>60</v>
       </c>
       <c r="N10" s="8" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="O10" s="10" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="P10" s="10" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="Q10" s="10" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="R10" s="10" t="s">
         <v>64</v>
@@ -1907,10 +1916,10 @@
         <v>39</v>
       </c>
       <c r="T10" s="10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="U10" s="10" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="V10" s="10" t="s">
         <v>52</v>
@@ -1939,27 +1948,27 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="5" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="12" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="6" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/latest/BoM/Positional/pedalboard-display-bom.xlsx
+++ b/latest/BoM/Positional/pedalboard-display-bom.xlsx
@@ -172,7 +172,7 @@
     <t>Library</t>
   </si>
   <si>
-    <t>https://mm.digikey.com/Volume0/opasdata/d220001/medias/docus/2384/CL05A105KP5NNN_Specsheet%20(1).pdf</t>
+    <t>https://www.inolux-corp.com/datasheet/SMDLED/Addressable%20LED/IN-PI15TAT5R5G5B_v1.0.pdf</t>
   </si>
   <si>
     <t>97.0000</t>

--- a/latest/BoM/Positional/pedalboard-display-bom.xlsx
+++ b/latest/BoM/Positional/pedalboard-display-bom.xlsx
@@ -199,7 +199,7 @@
     <t>JST_PH_B3B-PH-SM4-TB_1x03-1MP_P2.00mm_Vertical</t>
   </si>
   <si>
-    <t>~</t>
+    <t>https://www.jst-mfg.com/product/pdf/eng/ePH.pdf</t>
   </si>
   <si>
     <t>/</t>
@@ -1344,7 +1344,7 @@
       <c r="K11" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="L11" s="6" t="s">
+      <c r="L11" s="7" t="s">
         <v>59</v>
       </c>
       <c r="M11" s="7" t="s">
@@ -1412,7 +1412,7 @@
       <c r="K12" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="L12" s="9" t="s">
+      <c r="L12" s="10" t="s">
         <v>59</v>
       </c>
       <c r="M12" s="10" t="s">
@@ -1823,7 +1823,7 @@
       <c r="K9" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="L9" s="6" t="s">
+      <c r="L9" s="7" t="s">
         <v>59</v>
       </c>
       <c r="M9" s="7" t="s">

--- a/latest/BoM/Positional/pedalboard-display-bom.xlsx
+++ b/latest/BoM/Positional/pedalboard-display-bom.xlsx
@@ -352,7 +352,7 @@
     <t>KiCad Version:</t>
   </si>
   <si>
-    <t>8.0.4+1</t>
+    <t>8.0.6+1</t>
   </si>
   <si>
     <t>Component Groups:</t>
@@ -600,10 +600,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1464384</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>123779</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1605375</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>297815</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -630,7 +630,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="2378784" cy="1285829"/>
+          <a:ext cx="9396825" cy="5079365"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -652,10 +652,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>16584</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>123779</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1710150</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>107315</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -682,7 +682,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="2378784" cy="1285829"/>
+          <a:ext cx="9396825" cy="5079365"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
